--- a/Project_Run2d/일정표.xlsx
+++ b/Project_Run2d/일정표.xlsx
@@ -19,15 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
-  <si>
-    <t>수정 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>그래픽</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,71 +60,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>레벨별 난이도 조절</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>물에 빠지면 약간의 시간동안 멈추게 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스테이지2 배경 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지1 뒷배경 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스코어를 골드로 변환하여 메인화면에 표시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>5/7(화) ~ 5/9(목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/10(금) ~ 5/13(일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사운드 on/off 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 애니메이션 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지에 장식 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신문이 얼굴에 붙어서 밀리고 다시 날라가게 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물에 빠질때 이펙트 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행게이지 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임오버후 스코어 표시창 디자인, 골드 변환량, 이동거리 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지1 집 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>캐릭터 애니메이션 스프라이트 제작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5/7(화) ~ 5/9(목)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5/10(금) ~ 5/13(일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사운드 on/off 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 애니메이션 적용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지에 장식 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신문이 얼굴에 붙어서 밀리고 다시 날라가게 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물에 빠질때 이펙트 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행게이지 만들기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임오버후 스코어 표시창 디자인, 골드 변환량, 이동거리 추가</t>
+    <t>스테이지1 빌라 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지1 배경 스포너 제작</t>
+  </si>
+  <si>
+    <t>5/8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -298,45 +301,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -349,7 +328,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -658,7 +661,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -669,171 +672,171 @@
   <dimension ref="B1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="11"/>
+    <col min="1" max="1" width="8.625" style="3"/>
     <col min="2" max="2" width="29.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="12" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="18" customWidth="1"/>
     <col min="4" max="4" width="32" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="32.875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="14"/>
-    <col min="8" max="8" width="32.875" style="15" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="12"/>
-    <col min="10" max="16384" width="8.625" style="11"/>
+    <col min="5" max="5" width="9.125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="32.875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="32.875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="18" customWidth="1"/>
+    <col min="10" max="16384" width="8.625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="10"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
+      <c r="B3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>25</v>
+      <c r="E4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
+      <c r="B8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="D12" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
